--- a/data/trans_orig/P32C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32C-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2769</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8251</v>
+        <v>7412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006302606628483151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002059772752498262</v>
+        <v>0.002049834240436635</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01878243108096207</v>
+        <v>0.01687256636984872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>2769</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8379</v>
+        <v>7525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004466434695709208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00145691154537061</v>
+        <v>0.001453070205996066</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01351577396178735</v>
+        <v>0.01213911605191042</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>436550</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>431068</v>
+        <v>431907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>438414</v>
+        <v>438418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9936973933715169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.981217568919038</v>
+        <v>0.9831274336301513</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979402272475018</v>
+        <v>0.9979501657595633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -841,19 +841,19 @@
         <v>617156</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>611546</v>
+        <v>612400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619022</v>
+        <v>619024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9955335653042908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9864842260382123</v>
+        <v>0.9878608839480874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9985430884546295</v>
+        <v>0.9985469297940039</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>8772</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3907</v>
+        <v>3981</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16484</v>
+        <v>16771</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01507473942720094</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006713823079194337</v>
+        <v>0.006841434857234126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02832800762213129</v>
+        <v>0.02882173579069579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -979,19 +979,19 @@
         <v>8772</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4109</v>
+        <v>3861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17238</v>
+        <v>16604</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01018327857637934</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004769956613413792</v>
+        <v>0.004482461823079533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02001177551603421</v>
+        <v>0.01927590679758157</v>
       </c>
     </row>
     <row r="8">
@@ -1008,19 +1008,19 @@
         <v>573127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>565415</v>
+        <v>565128</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>577992</v>
+        <v>577918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9849252605727991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9716719923778685</v>
+        <v>0.971178264209304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9932861769208053</v>
+        <v>0.9931585651427652</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>263</v>
@@ -1042,19 +1042,19 @@
         <v>852637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>844171</v>
+        <v>844805</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857300</v>
+        <v>857548</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9898167214236206</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9799882244839657</v>
+        <v>0.9807240932024179</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9952300433865863</v>
+        <v>0.9955175381769203</v>
       </c>
     </row>
     <row r="9">
@@ -1146,19 +1146,19 @@
         <v>11168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5708</v>
+        <v>5978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18785</v>
+        <v>19563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03383836513862127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01729538235095642</v>
+        <v>0.01811239569976321</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0569137771024176</v>
+        <v>0.05927307663920914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>11168</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6356</v>
+        <v>5493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20643</v>
+        <v>19186</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02430744972645453</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01383361148624195</v>
+        <v>0.01195433321390492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04492816809038383</v>
+        <v>0.04175821102350385</v>
       </c>
     </row>
     <row r="11">
@@ -1209,19 +1209,19 @@
         <v>318884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311267</v>
+        <v>310489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>324344</v>
+        <v>324074</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9661616348613787</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9430862228975817</v>
+        <v>0.9407269233607903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9827046176490434</v>
+        <v>0.9818876043002368</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -1243,19 +1243,19 @@
         <v>448296</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>438821</v>
+        <v>440278</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>453108</v>
+        <v>453971</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9756925502735455</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9550718319096162</v>
+        <v>0.9582417889764961</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9861663885137579</v>
+        <v>0.9880456667860951</v>
       </c>
     </row>
     <row r="12">
@@ -1347,19 +1347,19 @@
         <v>12553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6730</v>
+        <v>7065</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20023</v>
+        <v>21229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02374558311614762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01273114171539401</v>
+        <v>0.0133644161090122</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03787612830912491</v>
+        <v>0.04015749626125219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1368,19 +1368,19 @@
         <v>8180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3462</v>
+        <v>3072</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15861</v>
+        <v>16280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02681556476948077</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01134861604662879</v>
+        <v>0.01007172335185893</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05199501465141695</v>
+        <v>0.05336702610300752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1389,19 +1389,19 @@
         <v>20733</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13465</v>
+        <v>12981</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31743</v>
+        <v>31926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02486889953081936</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01615107915021743</v>
+        <v>0.01556982002632843</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03807458314594296</v>
+        <v>0.03829464364647705</v>
       </c>
     </row>
     <row r="14">
@@ -1418,19 +1418,19 @@
         <v>516096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>508626</v>
+        <v>507420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>521919</v>
+        <v>521584</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9762544168838524</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9621238716908751</v>
+        <v>0.9598425037387479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987268858284606</v>
+        <v>0.9866355838909878</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -1439,19 +1439,19 @@
         <v>296875</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>289194</v>
+        <v>288775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>301593</v>
+        <v>301983</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9731844352305192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9480049853485825</v>
+        <v>0.9466329738969917</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9886513839533712</v>
+        <v>0.9899282766481411</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>830</v>
@@ -1460,19 +1460,19 @@
         <v>812971</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>801961</v>
+        <v>801778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>820239</v>
+        <v>820723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9751311004691806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9619254168540571</v>
+        <v>0.9617053563535223</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9838489208497825</v>
+        <v>0.9844301799736715</v>
       </c>
     </row>
     <row r="15">
@@ -1564,19 +1564,19 @@
         <v>35262</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24095</v>
+        <v>24476</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48903</v>
+        <v>48368</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01875736408598966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01281693896424134</v>
+        <v>0.01301971826147105</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02601311303635077</v>
+        <v>0.02572882220392149</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1585,19 +1585,19 @@
         <v>8180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3519</v>
+        <v>3491</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16576</v>
+        <v>16487</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009144158666681085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003933230639320762</v>
+        <v>0.003902136191402368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0185296062380959</v>
+        <v>0.0184296980178311</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -1606,19 +1606,19 @@
         <v>43443</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30971</v>
+        <v>32308</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57702</v>
+        <v>59383</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01565777280650212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01116283748078772</v>
+        <v>0.01164475649040785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02079714728170491</v>
+        <v>0.02140319273544139</v>
       </c>
     </row>
     <row r="17">
@@ -1635,19 +1635,19 @@
         <v>1844656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1831015</v>
+        <v>1831550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1855823</v>
+        <v>1855442</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9812426359140104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9739868869636493</v>
+        <v>0.9742711777960786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.987183061035759</v>
+        <v>0.9869802817385293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>867</v>
@@ -1656,19 +1656,19 @@
         <v>886404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>878008</v>
+        <v>878097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>891065</v>
+        <v>891093</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9908558413333189</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9814703937619041</v>
+        <v>0.981570301982169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9960667693606793</v>
+        <v>0.9960978638085977</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2677</v>
@@ -1677,19 +1677,19 @@
         <v>2731060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2716801</v>
+        <v>2715120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2743532</v>
+        <v>2742195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9843422271934978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9792028527182949</v>
+        <v>0.9785968072645586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9888371625192122</v>
+        <v>0.9883552435095921</v>
       </c>
     </row>
     <row r="18">
@@ -2021,19 +2021,19 @@
         <v>5885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2560</v>
+        <v>2602</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11948</v>
+        <v>12276</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01384466650802771</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006023410163858727</v>
+        <v>0.006120696494304176</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02810744411859719</v>
+        <v>0.02887815992712647</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5095</v>
+        <v>5038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005884587497272177</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02962626484434884</v>
+        <v>0.02929723316898943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2063,19 +2063,19 @@
         <v>6897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3139</v>
+        <v>3289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13327</v>
+        <v>13215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01155194648512288</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005257590901736632</v>
+        <v>0.00550837320661735</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02232192856141618</v>
+        <v>0.02213478141423709</v>
       </c>
     </row>
     <row r="5">
@@ -2092,19 +2092,19 @@
         <v>419195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>413132</v>
+        <v>412804</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>422520</v>
+        <v>422478</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9861553334919723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9718925558814028</v>
+        <v>0.9711218400728735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9939765898361413</v>
+        <v>0.9938793035056959</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -2113,7 +2113,7 @@
         <v>170953</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166870</v>
+        <v>166927</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>171965</v>
@@ -2122,7 +2122,7 @@
         <v>0.9941154125027278</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9703737351556512</v>
+        <v>0.9707027668310105</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2134,19 +2134,19 @@
         <v>590148</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>583718</v>
+        <v>583830</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>593906</v>
+        <v>593756</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9884480535148771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9776780714385841</v>
+        <v>0.9778652185857629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9947424090982634</v>
+        <v>0.9944916267933827</v>
       </c>
     </row>
     <row r="6">
@@ -2238,19 +2238,19 @@
         <v>8221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4026</v>
+        <v>3216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16407</v>
+        <v>15991</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01390394036660942</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006809212337539634</v>
+        <v>0.005439945329458631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02775062391065453</v>
+        <v>0.02704705307892463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2272,19 +2272,19 @@
         <v>8221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3876</v>
+        <v>3409</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15436</v>
+        <v>15508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009291990604234249</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004381122795244889</v>
+        <v>0.003852855316554571</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01744753092172853</v>
+        <v>0.01752985416141416</v>
       </c>
     </row>
     <row r="8">
@@ -2301,19 +2301,19 @@
         <v>583015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>574829</v>
+        <v>575245</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587210</v>
+        <v>588020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9860960596333905</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9722493760893455</v>
+        <v>0.9729529469210758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931907876624604</v>
+        <v>0.9945600546705415</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -2335,19 +2335,19 @@
         <v>876467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>869252</v>
+        <v>869180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880812</v>
+        <v>881279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9907080093957658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9825524690782715</v>
+        <v>0.9824701458385856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9956188772047552</v>
+        <v>0.9961471446834452</v>
       </c>
     </row>
     <row r="9">
@@ -2439,19 +2439,19 @@
         <v>10325</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5057</v>
+        <v>5196</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18821</v>
+        <v>19193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02250905873691502</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01102472655418976</v>
+        <v>0.01132798902334498</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04103195904508759</v>
+        <v>0.04184254605645086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         <v>10325</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5117</v>
+        <v>5214</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18787</v>
+        <v>18411</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01555771712497596</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007709781423912512</v>
+        <v>0.007856317591616457</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02830945781940581</v>
+        <v>0.02774245977171177</v>
       </c>
     </row>
     <row r="11">
@@ -2502,19 +2502,19 @@
         <v>448366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439870</v>
+        <v>439498</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>453634</v>
+        <v>453495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.977490941263085</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9589680409549132</v>
+        <v>0.958157453943549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9889752734458104</v>
+        <v>0.988672010976655</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>180</v>
@@ -2536,19 +2536,19 @@
         <v>653313</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644851</v>
+        <v>645227</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>658521</v>
+        <v>658424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.984442282875024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9716905421805943</v>
+        <v>0.9722575402282883</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9922902185760876</v>
+        <v>0.9921436824083837</v>
       </c>
     </row>
     <row r="12">
@@ -2640,19 +2640,19 @@
         <v>16489</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9817</v>
+        <v>9245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28862</v>
+        <v>26688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0295919874715816</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01761736002169094</v>
+        <v>0.01659169239099169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05179484853495925</v>
+        <v>0.04789468130294411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6175</v>
+        <v>6161</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005472835210681188</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01668014371086949</v>
+        <v>0.01664270952673021</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2682,19 +2682,19 @@
         <v>18515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11622</v>
+        <v>11291</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30151</v>
+        <v>29926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0199646268564549</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01253136133059295</v>
+        <v>0.01217492098218419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.032511262847252</v>
+        <v>0.03226786426886138</v>
       </c>
     </row>
     <row r="14">
@@ -2711,19 +2711,19 @@
         <v>540739</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528366</v>
+        <v>530540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>547411</v>
+        <v>547983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9704080125284184</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9482051514650408</v>
+        <v>0.9521053186970559</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9823826399783091</v>
+        <v>0.9834083076090082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -2732,7 +2732,7 @@
         <v>368158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>364009</v>
+        <v>364023</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>370184</v>
@@ -2741,7 +2741,7 @@
         <v>0.9945271647893188</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9833198562891305</v>
+        <v>0.9833572904732698</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2753,19 +2753,19 @@
         <v>908898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>897262</v>
+        <v>897487</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>915791</v>
+        <v>916122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9800353731435451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9674887371527479</v>
+        <v>0.9677321357311386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.987468638669407</v>
+        <v>0.9878250790178158</v>
       </c>
     </row>
     <row r="15">
@@ -2857,19 +2857,19 @@
         <v>40920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28832</v>
+        <v>29276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55439</v>
+        <v>57648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02013536155298443</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0141874989351376</v>
+        <v>0.01440559607124159</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02727992250659002</v>
+        <v>0.02836668477726434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -2878,19 +2878,19 @@
         <v>3038</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8157</v>
+        <v>8976</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002919519331120639</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0009630792345362535</v>
+        <v>0.0009595856740596809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007838732907150991</v>
+        <v>0.008626124392514744</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -2899,19 +2899,19 @@
         <v>43958</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31946</v>
+        <v>31955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>59102</v>
+        <v>58380</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01430549215731938</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01039647863444479</v>
+        <v>0.01039946988470924</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01923393796227092</v>
+        <v>0.01899899703076095</v>
       </c>
     </row>
     <row r="17">
@@ -2928,19 +2928,19 @@
         <v>1991315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1976796</v>
+        <v>1974587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2003403</v>
+        <v>2002959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9798646384470155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9727200774934102</v>
+        <v>0.9716333152227358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9858125010648626</v>
+        <v>0.9855944039287586</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>953</v>
@@ -2949,19 +2949,19 @@
         <v>1037511</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1032392</v>
+        <v>1031573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1039547</v>
+        <v>1039551</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9970804806688793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.992161267092849</v>
+        <v>0.9913738756074865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9990369207654638</v>
+        <v>0.9990404143259403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2824</v>
@@ -2970,19 +2970,19 @@
         <v>3028827</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3013683</v>
+        <v>3014405</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3040839</v>
+        <v>3040830</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9856945078426806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9807660620377292</v>
+        <v>0.9810010029692391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9896035213655553</v>
+        <v>0.9896005301152908</v>
       </c>
     </row>
     <row r="18">
@@ -3314,19 +3314,19 @@
         <v>7957</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3161</v>
+        <v>3354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14975</v>
+        <v>16429</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01882295081541289</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007478278335877663</v>
+        <v>0.007933724312629826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0354250578058193</v>
+        <v>0.03886665844703689</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -3348,19 +3348,19 @@
         <v>7957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15498</v>
+        <v>15547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01311615544112123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005233586127959652</v>
+        <v>0.005238724376142656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02554681059705513</v>
+        <v>0.02562874826110098</v>
       </c>
     </row>
     <row r="5">
@@ -3377,19 +3377,19 @@
         <v>414756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407738</v>
+        <v>406284</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>419552</v>
+        <v>419359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9811770491845871</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9645749421941807</v>
+        <v>0.9611333415529633</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925217216641223</v>
+        <v>0.9920662756873702</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -3411,19 +3411,19 @@
         <v>598677</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>591136</v>
+        <v>591087</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>603459</v>
+        <v>603456</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9868838445588788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9744531894029447</v>
+        <v>0.974371251738899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9947664138720402</v>
+        <v>0.9947612756238573</v>
       </c>
     </row>
     <row r="6">
@@ -3515,19 +3515,19 @@
         <v>8775</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4040</v>
+        <v>4153</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17314</v>
+        <v>17911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01549970371113068</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00713688763009046</v>
+        <v>0.007336321261029065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03058201291278059</v>
+        <v>0.03163653109941175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6552</v>
+        <v>6117</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003508797247607691</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02082358790445444</v>
+        <v>0.01944151434954821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -3557,19 +3557,19 @@
         <v>9879</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4582</v>
+        <v>5072</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17759</v>
+        <v>18604</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01121632141331871</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00520248007672752</v>
+        <v>0.005758125743784164</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02016310463547413</v>
+        <v>0.02112255297623285</v>
       </c>
     </row>
     <row r="8">
@@ -3586,19 +3586,19 @@
         <v>557363</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>548824</v>
+        <v>548227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>562098</v>
+        <v>561985</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9845002962888694</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9694179870872189</v>
+        <v>0.9683634689005882</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9928631123699095</v>
+        <v>0.9926636787389709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -3607,7 +3607,7 @@
         <v>313522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308074</v>
+        <v>308509</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>314626</v>
@@ -3616,7 +3616,7 @@
         <v>0.9964912027523923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9791764120955455</v>
+        <v>0.980558485650452</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -3628,19 +3628,19 @@
         <v>870884</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>863004</v>
+        <v>862159</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>876181</v>
+        <v>875691</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9887836785866813</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9798368953645259</v>
+        <v>0.9788774470237672</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9947975199232725</v>
+        <v>0.9942418742562158</v>
       </c>
     </row>
     <row r="9">
@@ -3732,19 +3732,19 @@
         <v>8283</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3847</v>
+        <v>3915</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16460</v>
+        <v>15358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.019411276617023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009015251245779529</v>
+        <v>0.009175016420726366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03857527261671337</v>
+        <v>0.03599264928665843</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3766,19 +3766,19 @@
         <v>8283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3268</v>
+        <v>4034</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15076</v>
+        <v>15977</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01263864807093429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004987272112256313</v>
+        <v>0.006156045480447335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02300505859468444</v>
+        <v>0.02438030357139909</v>
       </c>
     </row>
     <row r="11">
@@ -3795,19 +3795,19 @@
         <v>418404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>410227</v>
+        <v>411329</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>422840</v>
+        <v>422772</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.980588723382977</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9614247273832867</v>
+        <v>0.9640073507133415</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9909847487542206</v>
+        <v>0.9908249835792736</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>216</v>
@@ -3829,19 +3829,19 @@
         <v>647052</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640259</v>
+        <v>639358</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652067</v>
+        <v>651301</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9873613519290657</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9769949414053156</v>
+        <v>0.9756196964286009</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9950127278877436</v>
+        <v>0.9938439545195527</v>
       </c>
     </row>
     <row r="12">
@@ -3933,19 +3933,19 @@
         <v>6949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2973</v>
+        <v>2957</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13127</v>
+        <v>13139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01228421697231505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005255314375281051</v>
+        <v>0.005226569749941794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02320480228297655</v>
+        <v>0.02322680594838424</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -3954,19 +3954,19 @@
         <v>5106</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1938</v>
+        <v>1915</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11087</v>
+        <v>11743</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01266902383041893</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004807609183074778</v>
+        <v>0.004752513702568669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02751075233060008</v>
+        <v>0.02913871950276202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3975,19 +3975,19 @@
         <v>12055</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6056</v>
+        <v>6181</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20170</v>
+        <v>20538</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01244430992785064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006251338209326548</v>
+        <v>0.006380232276035856</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02082090712510169</v>
+        <v>0.02120076834486137</v>
       </c>
     </row>
     <row r="14">
@@ -4004,19 +4004,19 @@
         <v>558749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>552571</v>
+        <v>552559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>562725</v>
+        <v>562741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9877157830276849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9767951977170234</v>
+        <v>0.9767731940516158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947446856247188</v>
+        <v>0.9947734302500583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>368</v>
@@ -4025,19 +4025,19 @@
         <v>397914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391933</v>
+        <v>391277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>401082</v>
+        <v>401105</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9873309761695811</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9724892476693996</v>
+        <v>0.9708612804972376</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9951923908169252</v>
+        <v>0.9952474862974313</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>920</v>
@@ -4046,19 +4046,19 @@
         <v>956663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>948548</v>
+        <v>948180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>962662</v>
+        <v>962537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9875556900721494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9791790928748983</v>
+        <v>0.9787992316551388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9937486617906734</v>
+        <v>0.9936197677239641</v>
       </c>
     </row>
     <row r="15">
@@ -4150,19 +4150,19 @@
         <v>31963</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21496</v>
+        <v>21771</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43982</v>
+        <v>43884</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01613304823384628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0108497081337066</v>
+        <v>0.01098864439370814</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0221994370134335</v>
+        <v>0.02214979907232317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -4171,19 +4171,19 @@
         <v>6210</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2164</v>
+        <v>2091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12992</v>
+        <v>12365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005494382015336209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001914915120943003</v>
+        <v>0.001850456403285145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01149496371059047</v>
+        <v>0.0109407341170745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -4192,19 +4192,19 @@
         <v>38173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27058</v>
+        <v>27384</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52694</v>
+        <v>52755</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01226862124682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008696398831012439</v>
+        <v>0.00880114899556053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01693567000448033</v>
+        <v>0.01695520910173678</v>
       </c>
     </row>
     <row r="17">
@@ -4221,19 +4221,19 @@
         <v>1949273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1937254</v>
+        <v>1937352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1959740</v>
+        <v>1959465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9838669517661537</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9778005629865666</v>
+        <v>0.9778502009276769</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9891502918662934</v>
+        <v>0.9890113556062919</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1075</v>
@@ -4242,19 +4242,19 @@
         <v>1124004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1117222</v>
+        <v>1117849</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1128050</v>
+        <v>1128123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9945056179846637</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9885050362894087</v>
+        <v>0.9890592658829256</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9980850848790567</v>
+        <v>0.9981495435967148</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2918</v>
@@ -4263,19 +4263,19 @@
         <v>3073277</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3058756</v>
+        <v>3058695</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3084392</v>
+        <v>3084066</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98773137875318</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9830643299955196</v>
+        <v>0.9830447908982629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9913036011689874</v>
+        <v>0.9911988510044395</v>
       </c>
     </row>
     <row r="18">
@@ -4607,19 +4607,19 @@
         <v>2438</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6601</v>
+        <v>5877</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006887866101705885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00167454015243908</v>
+        <v>0.001617801412330458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01865011795911271</v>
+        <v>0.01660464220936448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00761339573985411</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4649,19 +4649,19 @@
         <v>3756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1495</v>
+        <v>1422</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7512</v>
+        <v>7661</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007126141452723446</v>
+        <v>0.007126141452723445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00283668282200981</v>
+        <v>0.002698512316814435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01425361365311981</v>
+        <v>0.01453592769900134</v>
       </c>
     </row>
     <row r="5">
@@ -4678,19 +4678,19 @@
         <v>351501</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347338</v>
+        <v>348062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>353346</v>
+        <v>353366</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9931121338982942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9813498820408876</v>
+        <v>0.9833953577906357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9983254598475609</v>
+        <v>0.9983821985876696</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -4699,7 +4699,7 @@
         <v>171764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168461</v>
+        <v>168203</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>173082</v>
@@ -4708,7 +4708,7 @@
         <v>0.9923866042601459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9733033224535927</v>
+        <v>0.9718092521448255</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4720,19 +4720,19 @@
         <v>523264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>519508</v>
+        <v>519359</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>525525</v>
+        <v>525598</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9928738585472765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9857463863468802</v>
+        <v>0.9854640723009983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971633171779899</v>
+        <v>0.9973014876831856</v>
       </c>
     </row>
     <row r="6">
@@ -4824,19 +4824,19 @@
         <v>7380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13387</v>
+        <v>13834</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0147391901404269</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006646394799100693</v>
+        <v>0.006656349564706682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02673510583152724</v>
+        <v>0.02762844426230791</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -4845,19 +4845,19 @@
         <v>3531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1012</v>
+        <v>976</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10218</v>
+        <v>10357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0157721026996797</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004520365352873346</v>
+        <v>0.004361368393329412</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04563756136359582</v>
+        <v>0.04626126461816805</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4866,19 +4866,19 @@
         <v>10911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6021</v>
+        <v>5729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19759</v>
+        <v>18520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01505833543891228</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008309539308590103</v>
+        <v>0.007906792635007034</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02726899530851588</v>
+        <v>0.02555797643832699</v>
       </c>
     </row>
     <row r="8">
@@ -4895,19 +4895,19 @@
         <v>493343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487336</v>
+        <v>486889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497395</v>
+        <v>497390</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9852608098595733</v>
+        <v>0.9852608098595731</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9732648941684728</v>
+        <v>0.9723715557376923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9933536052008993</v>
+        <v>0.9933436504352938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>285</v>
@@ -4916,19 +4916,19 @@
         <v>220356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>213669</v>
+        <v>213530</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>222875</v>
+        <v>222911</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9842278973003203</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.954362438636404</v>
+        <v>0.9537387353818318</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9954796346471267</v>
+        <v>0.9956386316066705</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>719</v>
@@ -4937,19 +4937,19 @@
         <v>713700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>704852</v>
+        <v>706091</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>718590</v>
+        <v>718882</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9849416645610876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9727310046914841</v>
+        <v>0.9744420235616732</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9916904606914099</v>
+        <v>0.9920932073649928</v>
       </c>
     </row>
     <row r="9">
@@ -5044,16 +5044,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7977</v>
+        <v>8109</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006392517257251441</v>
+        <v>0.00639251725725144</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02214671329351213</v>
+        <v>0.02251237068026812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11569</v>
+        <v>12395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01105731327487485</v>
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05751966519588823</v>
+        <v>0.06162389733914532</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -5083,19 +5083,19 @@
         <v>4526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15053</v>
+        <v>13354</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008064030483986151</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002023312427726727</v>
+        <v>0.001999503745002292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02681811708857238</v>
+        <v>0.02379063940706657</v>
       </c>
     </row>
     <row r="11">
@@ -5112,16 +5112,16 @@
         <v>357881</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>352206</v>
+        <v>352074</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>360183</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9936074827427488</v>
+        <v>0.9936074827427486</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9778532867064879</v>
+        <v>0.9774876293197318</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5133,16 +5133,16 @@
         <v>198910</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>189565</v>
+        <v>188739</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>201134</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9889426867251252</v>
+        <v>0.9889426867251251</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9424803348041111</v>
+        <v>0.9383761026608541</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5154,19 +5154,19 @@
         <v>556791</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>546264</v>
+        <v>547963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>560181</v>
+        <v>560195</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.991935969516014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9731818829114277</v>
+        <v>0.9762093605929331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979766875722732</v>
+        <v>0.9980004962549978</v>
       </c>
     </row>
     <row r="12">
@@ -5258,19 +5258,19 @@
         <v>7763</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3869</v>
+        <v>3657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13900</v>
+        <v>14464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01667155621764534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008308255823528293</v>
+        <v>0.007852785784536701</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02985035214506228</v>
+        <v>0.03106105308744611</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -5279,19 +5279,19 @@
         <v>4545</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1587</v>
+        <v>1273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13757</v>
+        <v>13995</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01472616745970724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005143586478269504</v>
+        <v>0.00412354427248301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04457399527379175</v>
+        <v>0.04534443229665931</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -5300,19 +5300,19 @@
         <v>12308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6822</v>
+        <v>7237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21624</v>
+        <v>22172</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01589613337175548</v>
+        <v>0.01589613337175547</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00881125042973426</v>
+        <v>0.009346619319481832</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02792723108433024</v>
+        <v>0.02863479529306013</v>
       </c>
     </row>
     <row r="14">
@@ -5329,19 +5329,19 @@
         <v>457901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>451764</v>
+        <v>451200</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>461795</v>
+        <v>462007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833284437823546</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9701496478549378</v>
+        <v>0.9689389469125543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916917441764718</v>
+        <v>0.9921472142154636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>413</v>
@@ -5350,19 +5350,19 @@
         <v>304085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294873</v>
+        <v>294635</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>307043</v>
+        <v>307357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9852738325402928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9554260047262081</v>
+        <v>0.9546555677033408</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9948564135217305</v>
+        <v>0.995876455727517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>888</v>
@@ -5371,19 +5371,19 @@
         <v>761986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>752670</v>
+        <v>752122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767472</v>
+        <v>767057</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9841038666282445</v>
+        <v>0.9841038666282446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.97207276891567</v>
+        <v>0.9713652047069394</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9911887495702658</v>
+        <v>0.990653380680518</v>
       </c>
     </row>
     <row r="15">
@@ -5475,19 +5475,19 @@
         <v>19884</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13036</v>
+        <v>12348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29287</v>
+        <v>29638</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01183210568081937</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007756922608885372</v>
+        <v>0.007347989404332811</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01742727797994687</v>
+        <v>0.01763653451445413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -5496,19 +5496,19 @@
         <v>11618</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5750</v>
+        <v>5281</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23718</v>
+        <v>21233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01281287004242174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006341186129824283</v>
+        <v>0.005824101523974954</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0261580429546209</v>
+        <v>0.02341685692354535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -5517,19 +5517,19 @@
         <v>31502</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22034</v>
+        <v>21192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44359</v>
+        <v>43969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01217582747340473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008516395485283866</v>
+        <v>0.008191063477085071</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01714540060837011</v>
+        <v>0.01699467884024447</v>
       </c>
     </row>
     <row r="17">
@@ -5546,19 +5546,19 @@
         <v>1660625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1651222</v>
+        <v>1650871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1667473</v>
+        <v>1668161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9881678943191807</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.982572722020053</v>
+        <v>0.9823634654855458</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9922430773911146</v>
+        <v>0.9926520105956671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1193</v>
@@ -5567,19 +5567,19 @@
         <v>895115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>883015</v>
+        <v>885500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>900983</v>
+        <v>901452</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9871871299575782</v>
+        <v>0.9871871299575783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9738419570453789</v>
+        <v>0.9765831430764543</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9936588138701756</v>
+        <v>0.9941758984760249</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2756</v>
@@ -5588,19 +5588,19 @@
         <v>2555740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2542883</v>
+        <v>2543273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2565208</v>
+        <v>2566050</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9878241725265953</v>
+        <v>0.9878241725265952</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9828545993916299</v>
+        <v>0.9830053211597554</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9914836045147161</v>
+        <v>0.9918089365229148</v>
       </c>
     </row>
     <row r="18">
